--- a/assets/Empresas.xlsx
+++ b/assets/Empresas.xlsx
@@ -554,115 +554,115 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CiaPlastic Indústria de Plásticos Ltda</t>
+          <t>Durín Indústria de Plásticos LTDA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R. Jordão Pereira, 144 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>Av. Pref. Alberto Natalino Miquelute, 6500 - Itinga, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(47) 3433-3519</t>
+          <t>(47) 3026-1100</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>http://www.durin.com.br/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12456052362401446179</t>
+          <t>https://maps.google.com/?cid=2996914438079618044</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-26.406084</v>
+        <v>-26.40117669999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-48.7499504</v>
+        <v>-48.8062207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Masster Plásticos Ltda</t>
+          <t>TAF Indústria de Plásticos, Unidade Araquari</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Av. das Indústrias, 778 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>Rod. Mun. Corveta, 2045 - Araquari, SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(47) 3424-0746</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: Open 24 hours', 'Tuesday: Open 24 hours', 'Wednesday: Open 24 hours', 'Thursday: Open 24 hours', 'Friday: Open 24 hours', 'Saturday: Open 24 hours', 'Sunday: Open 24 hours']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://www.massterplasticos.com.br/site</t>
+          <t>http://www.taf.ind.br/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1251142454237141513</t>
+          <t>https://maps.google.com/?cid=4692788599218725301</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-26.4125405</v>
+        <v>-26.4284113</v>
       </c>
       <c r="H5" t="n">
-        <v>-48.7437773</v>
+        <v>-48.7542494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kobra Plásticos</t>
+          <t>Masster Plásticos Ltda</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BR-280, 1100 - KM 33, GALPÃO 1 - Itinga, Araquari - SC, 89245-000, Brazil</t>
+          <t>Av. das Indústrias, 778 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(47) 4106-0046</t>
+          <t>(47) 3424-0746</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['Monday: 7:30\u202fAM\u2009–\u20094:48\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20094:48\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20094:48\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20094:48\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20094:48\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.kobraplasticos.com.br/</t>
+          <t>http://www.massterplasticos.com.br/site</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13540223324709495365</t>
+          <t>https://maps.google.com/?cid=1251142454237141513</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-26.424691</v>
+        <v>-26.4125405</v>
       </c>
       <c r="H6" t="n">
-        <v>-48.7868386</v>
+        <v>-48.7437773</v>
       </c>
     </row>
     <row r="7">
@@ -706,174 +706,174 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Finolli Periféricos de Injeção Plástica</t>
+          <t>Plast Fibra Artefatos de Plástico</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BR-280, 5065 - Galpão 04/E2/ sala 01 - Colégio Agrícola, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Jorge Tobias da Silva, 581 - Itinga, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(47) 98907-3069</t>
+          <t>(47) 3466-0447</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['Monday: 9:00\u202fAM\u2009–\u20095:00\u202fPM', 'Tuesday: 9:00\u202fAM\u2009–\u20095:00\u202fPM', 'Wednesday: 9:00\u202fAM\u2009–\u20095:00\u202fPM', 'Thursday: 9:00\u202fAM\u2009–\u20095:00\u202fPM', 'Friday: 9:00\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20094:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://finolli.com.br/</t>
+          <t>http://www.plastfibra.com.br/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12966302688200913528</t>
+          <t>https://maps.google.com/?cid=8463489902567987573</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-26.3948851</v>
+        <v>-26.41302619999999</v>
       </c>
       <c r="H8" t="n">
-        <v>-48.74134240000001</v>
+        <v>-48.7867988</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Plast Fibra Artefatos de Plástico</t>
+          <t>PLASJÓI INDÚSTRIA DE PLÁSTICOS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R. Jorge Tobias da Silva, 581 - Itinga, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Etel, 249 - Itinga, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(47) 3466-0447</t>
+          <t>(47) 99737-0000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['Monday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20094:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://www.plastfibra.com.br/</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8463489902567987573</t>
+          <t>https://maps.google.com/?cid=8409317653708074031</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-26.41302619999999</v>
+        <v>-26.41309069999999</v>
       </c>
       <c r="H9" t="n">
-        <v>-48.7867988</v>
+        <v>-48.7953983</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Durín Indústria de Plásticos LTDA</t>
+          <t>REGIPLAST INDÚSTRIA E COMÉRCIO DE PLÁSTICOS LTDA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Av. Pref. Alberto Natalino Miquelute, 6500 - Itinga, Araquari - SC, 89245-000, Brazil</t>
+          <t>BR-280, 5065 - GALPÃO 04 - Colégio Agrícola, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(47) 3026-1100</t>
+          <t>(47) 3842-0014</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 8:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:30\u202fPM', 'Tuesday: 8:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:30\u202fPM', 'Wednesday: 8:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:30\u202fPM', 'Thursday: 8:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:30\u202fPM', 'Friday: 8:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://www.durin.com.br/</t>
+          <t>http://www.regiplasticos.com.br/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2996914438079618044</t>
+          <t>https://maps.google.com/?cid=2344972102721693310</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-26.40117669999999</v>
+        <v>-26.3951593</v>
       </c>
       <c r="H10" t="n">
-        <v>-48.8062207</v>
+        <v>-48.7395282</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TAF Indústria de Plásticos, Unidade Araquari</t>
+          <t>Inan Plásticos</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rod. Mun. Corveta, 2045 - Araquari, SC, 89245-000, Brazil</t>
+          <t>R. Antônio Jasper, 187 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>(47) 3455-0573</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['Monday: Open 24 hours', 'Tuesday: Open 24 hours', 'Wednesday: Open 24 hours', 'Thursday: Open 24 hours', 'Friday: Open 24 hours', 'Saturday: Open 24 hours', 'Sunday: Open 24 hours']</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://www.taf.ind.br/</t>
+          <t>http://www.inan.com.br/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=4692788599218725301</t>
+          <t>https://maps.google.com/?cid=4712387256137612912</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-26.4284113</v>
+        <v>-26.4092218</v>
       </c>
       <c r="H11" t="n">
-        <v>-48.7542494</v>
+        <v>-48.7479457</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TAF Indústria de Plásticos, Unidade 4 Araquari</t>
+          <t>CiaPlastic Indústria de Plásticos Ltda</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BR-280, 11965 - Areias Pequenas, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Jordão Pereira, 144 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(47) 3441-3760</t>
+          <t>(47) 3433-3519</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['Monday: 7:00\u202fAM\u2009–\u20094:48\u202fPM', 'Tuesday: 7:00\u202fAM\u2009–\u20094:48\u202fPM', 'Wednesday: 7:00\u202fAM\u2009–\u20094:48\u202fPM', 'Thursday: 7:00\u202fAM\u2009–\u20094:48\u202fPM', 'Friday: 7:00\u202fAM\u2009–\u20094:48\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,187 +883,187 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=9020719625679193526</t>
+          <t>https://maps.google.com/?cid=12456052362401446179</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-26.36913849999999</v>
+        <v>-26.406084</v>
       </c>
       <c r="H12" t="n">
-        <v>-48.6788519</v>
+        <v>-48.7499504</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ambiental Indústria e Comércio de Plásticos Eireli</t>
+          <t>Vilare Indústria Plástica</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R. Júlio Korman, 201 - Colégio Agrícola, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Antônio Jasper, 3070 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(47) 3447-1850</t>
+          <t>(47) 3433-1203</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['Monday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:18\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:18\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:18\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:18\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:18\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 7:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 7:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 7:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 7:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 7:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/pages/Ambiental-Resinas-Termopl%C3%A1sticas/1657104977855546</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=361317383751652115</t>
+          <t>https://maps.google.com/?cid=2048689997988107323</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-26.3991619</v>
+        <v>-26.4099859</v>
       </c>
       <c r="H13" t="n">
-        <v>-48.738763</v>
+        <v>-48.7471685</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CCP - Compostos de PVC</t>
+          <t>Sokit Indústria e Comércio de Plásticos e Fixadores</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BR-280, 980 - Itinga, Araquari - SC, 89245-000, Brazil</t>
+          <t>Rua Adenor Steffens, 393 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(47) 3447-4800</t>
+          <t>(47) 3436-7002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://www.ccp.ind.br/</t>
+          <t>http://www.sokit.ind.br/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7957434184623996921</t>
+          <t>https://maps.google.com/?cid=1885106090822848458</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-26.4243865</v>
+        <v>-26.414552</v>
       </c>
       <c r="H14" t="n">
-        <v>-48.78537069999999</v>
+        <v>-48.747793</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ribeiro Plásticos</t>
+          <t>TAF Indústria de Plásticos, Unidade 4 Araquari</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Av. das Indústrias, 645 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>BR-280, 11965 - Areias Pequenas, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>(47) 3465-0163</t>
+          <t>(47) 3441-3760</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 7:00\u202fAM\u2009–\u20094:48\u202fPM', 'Tuesday: 7:00\u202fAM\u2009–\u20094:48\u202fPM', 'Wednesday: 7:00\u202fAM\u2009–\u20094:48\u202fPM', 'Thursday: 7:00\u202fAM\u2009–\u20094:48\u202fPM', 'Friday: 7:00\u202fAM\u2009–\u20094:48\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://www.fribeiro.com.br/</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=11828547316661278196</t>
+          <t>https://maps.google.com/?cid=9020719625679193526</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-26.41118610000001</v>
+        <v>-26.36913849999999</v>
       </c>
       <c r="H15" t="n">
-        <v>-48.7444901</v>
+        <v>-48.6788519</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Plasgomes Brinquedos LTDA</t>
+          <t>Finolli Periféricos de Injeção Plástica</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R. Mariano Soares, 405 - Jacu, Araquari - SC, 89245-000, Brazil</t>
+          <t>BR-280, 5065 - Galpão 04/E2/ sala 01 - Colégio Agrícola, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>(47) 3447-1000</t>
+          <t>(47) 98907-3069</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['Monday: 7:25\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:13\u202fPM', 'Tuesday: 7:25\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:13\u202fPM', 'Wednesday: 7:25\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:13\u202fPM', 'Thursday: 7:25\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:13\u202fPM', 'Friday: 7:25\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:13\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 9:00\u202fAM\u2009–\u20095:00\u202fPM', 'Tuesday: 9:00\u202fAM\u2009–\u20095:00\u202fPM', 'Wednesday: 9:00\u202fAM\u2009–\u20095:00\u202fPM', 'Thursday: 9:00\u202fAM\u2009–\u20095:00\u202fPM', 'Friday: 9:00\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.plasgomes.com.br/</t>
+          <t>https://finolli.com.br/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=11050268540836358014</t>
+          <t>https://maps.google.com/?cid=12966302688200913528</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-26.45196</v>
+        <v>-26.3948851</v>
       </c>
       <c r="H16" t="n">
-        <v>-48.7910286</v>
+        <v>-48.74134240000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TWM Plásticos (Eletrodutos)</t>
+          <t>JF Plásticos</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SC-418, 8685 - Itinga, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Florentina Pereira Jasper, 780 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>(47) 99957-0685</t>
+          <t>(47) 3307-7733</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: 8:00\u202fAM\u2009–\u200912:00\u202fPM', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1073,111 +1073,111 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3496591078182099973</t>
+          <t>https://maps.google.com/?cid=17653220943147102115</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-26.4172691</v>
+        <v>-26.4141345</v>
       </c>
       <c r="H17" t="n">
-        <v>-48.7905189</v>
+        <v>-48.74421279999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Inan Plásticos</t>
+          <t>Ambiental Indústria e Comércio de Plásticos Eireli</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R. Antônio Jasper, 187 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Júlio Korman, 201 - Colégio Agrícola, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(47) 3455-0573</t>
+          <t>(47) 3447-1850</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:18\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:18\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:18\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:18\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:18\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://www.inan.com.br/</t>
+          <t>https://www.facebook.com/pages/Ambiental-Resinas-Termopl%C3%A1sticas/1657104977855546</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=4712387256137612912</t>
+          <t>https://maps.google.com/?cid=361317383751652115</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-26.4092218</v>
+        <v>-26.3991619</v>
       </c>
       <c r="H18" t="n">
-        <v>-48.7479457</v>
+        <v>-48.738763</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JWA Termoformagem - Embalagens blister, bandejas, peças técnicas.</t>
+          <t>Kobra Plásticos</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R. das Carpas, 70 - Itinga, Araquari - SC, 89245-000, Brazil</t>
+          <t>BR-280, 1100 - KM 33, GALPÃO 1 - Itinga, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(47) 3438-5913</t>
+          <t>(47) 4106-0046</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['Monday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 7:30\u202fAM\u2009–\u20094:48\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20094:48\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20094:48\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20094:48\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20094:48\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://www.jwa.ind.br/</t>
+          <t>https://www.kobraplasticos.com.br/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6478798547951155363</t>
+          <t>https://maps.google.com/?cid=13540223324709495365</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-26.4035915</v>
+        <v>-26.424691</v>
       </c>
       <c r="H19" t="n">
-        <v>-48.8035493</v>
+        <v>-48.7868386</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Vilare Indústria Plástica</t>
+          <t>C.R.E Indústria de Plásticos e Pigmentos Concentrados</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R. Antônio Jasper, 3070 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. João Vidal da Silva, 500 - Corveta, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(47) 3433-1203</t>
+          <t>(47) 3454-7909</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['Monday: 7:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 7:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 7:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 7:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 7:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1187,182 +1187,182 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2048689997988107323</t>
+          <t>https://maps.google.com/?cid=3362341130503749882</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-26.4099859</v>
+        <v>-26.4674402</v>
       </c>
       <c r="H20" t="n">
-        <v>-48.7471685</v>
+        <v>-48.7398761</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MF FERRAMENTARIA FABRICAÇÃO DE UNTENSÍLIOS PLÁSTICOS</t>
+          <t>Rotomega Plásticos - CRE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ESTRADA CORVETA, 3965 - Corveta, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. João Vidal da Silva, 500 - Corveta, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(47) 3515-6220</t>
+          <t>(47) 3454-7909</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>http://www.rotomega.com.br/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16348716825259280885</t>
+          <t>https://maps.google.com/?cid=1741590959201200716</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-26.4552724</v>
+        <v>-26.4674753</v>
       </c>
       <c r="H21" t="n">
-        <v>-48.7716576</v>
+        <v>-48.7399332</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Topeka Embalagens</t>
+          <t>MF FERRAMENTARIA FABRICAÇÃO DE UNTENSÍLIOS PLÁSTICOS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R. Anderson Miquelute, 175 B - Itinga, Araquari - SC, 89245-000, Brazil</t>
+          <t>ESTRADA CORVETA, 3965 - Corveta, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(47) 3029-5651</t>
+          <t>(47) 3515-6220</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://topekaembalagens.com.br/</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16800165772555249326</t>
+          <t>https://maps.google.com/?cid=16348716825259280885</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-26.4036958</v>
+        <v>-26.4552724</v>
       </c>
       <c r="H22" t="n">
-        <v>-48.80501779999999</v>
+        <v>-48.7716576</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fortlev - Unidade SC</t>
+          <t>JWA Termoformagem - Embalagens blister, bandejas, peças técnicas.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rod. BR 101 km 64,7 S/N Galpão 1 - Estr. da Corveta - Corveta, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. das Carpas, 70 - Itinga, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(47) 3801-5200</t>
+          <t>(47) 3438-5913</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://www.fortlev.com.br/</t>
+          <t>http://www.jwa.ind.br/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=621845629969621111</t>
+          <t>https://maps.google.com/?cid=6478798547951155363</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-26.4694911</v>
+        <v>-26.4035915</v>
       </c>
       <c r="H23" t="n">
-        <v>-48.7468361</v>
+        <v>-48.8035493</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BM Brasil Plásticos</t>
+          <t>Ribeiro Plásticos</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R. Norberto da Maia, 745 - Volta Redonda, Araquari - SC, 89245-000, Brazil</t>
+          <t>Av. das Indústrias, 645 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>(47) 99993-0102</t>
+          <t>(47) 3465-0163</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>http://www.fribeiro.com.br/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16288666892075024089</t>
+          <t>https://maps.google.com/?cid=11828547316661278196</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-26.3794992</v>
+        <v>-26.41118610000001</v>
       </c>
       <c r="H24" t="n">
-        <v>-48.7115181</v>
+        <v>-48.7444901</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SAVANTI PLÁSTICOS</t>
+          <t>TWM Plásticos (Eletrodutos)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R. Florentina Pereira Jasper, 187 - Galpão B - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>SC-418, 8685 - Itinga, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(47) 3305-1812</t>
+          <t>(47) 99957-0685</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1372,149 +1372,149 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://savantiplasticos.com.br/</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=9803429461494065493</t>
+          <t>https://maps.google.com/?cid=3496591078182099973</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-26.4099062</v>
+        <v>-26.4172691</v>
       </c>
       <c r="H25" t="n">
-        <v>-48.74810039999999</v>
+        <v>-48.7905189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Belosch</t>
+          <t>Plasgomes Brinquedos LTDA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BR-280 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Mariano Soares, 405 - Jacu, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>(47) 3447-6777</t>
+          <t>(47) 3447-1000</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20095:45\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:45\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:45\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:45\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:45\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 7:25\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:13\u202fPM', 'Tuesday: 7:25\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:13\u202fPM', 'Wednesday: 7:25\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:13\u202fPM', 'Thursday: 7:25\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:13\u202fPM', 'Friday: 7:25\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:13\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.belosch.com.br/</t>
+          <t>https://www.plasgomes.com.br/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3738095850852143924</t>
+          <t>https://maps.google.com/?cid=11050268540836358014</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-26.4038096</v>
+        <v>-26.45196</v>
       </c>
       <c r="H26" t="n">
-        <v>-48.7465536</v>
+        <v>-48.7910286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Plásticos Joinville</t>
+          <t>CCP - Compostos de PVC</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rodovia BR 101 - s/n Km 74 - Itapocu, Itapocu - Araquari - SC, 89246-000, Brazil</t>
+          <t>BR-280, 980 - Itinga, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>(47) 3455-3862</t>
+          <t>(47) 3447-4800</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>http://www.ccp.ind.br/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17894418979909202139</t>
+          <t>https://maps.google.com/?cid=7957434184623996921</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>-26.5502288</v>
+        <v>-26.4243865</v>
       </c>
       <c r="H27" t="n">
-        <v>-48.7127828</v>
+        <v>-48.78537069999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PLASJÓI INDÚSTRIA DE PLÁSTICOS</t>
+          <t>SAVANTI PLÁSTICOS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R. Etel, 249 - Itinga, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Florentina Pereira Jasper, 187 - Galpão B - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>(47) 99737-0000</t>
+          <t>(47) 3305-1812</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://savantiplasticos.com.br/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8409317653708074031</t>
+          <t>https://maps.google.com/?cid=9803429461494065493</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-26.41309069999999</v>
+        <v>-26.4099062</v>
       </c>
       <c r="H28" t="n">
-        <v>-48.7953983</v>
+        <v>-48.74810039999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Isoterm Industry and Trade LTDA- Packaging Branch</t>
+          <t>BM Brasil Plásticos</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BR-101 - Corveta, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Norberto da Maia, 745 - Volta Redonda, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(47) 3452-0088</t>
+          <t>(47) 99993-0102</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1524,154 +1524,154 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://www.isoterm.com.br/</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16518496566927946513</t>
+          <t>https://maps.google.com/?cid=16288666892075024089</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>-26.4643947</v>
+        <v>-26.3794992</v>
       </c>
       <c r="H29" t="n">
-        <v>-48.74662190000001</v>
+        <v>-48.7115181</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>REGIPLAST INDÚSTRIA E COMÉRCIO DE PLÁSTICOS LTDA</t>
+          <t>Injequaly - Injeção e Ferramentaria</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BR-280, 5065 - GALPÃO 04 - Colégio Agrícola, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Florentina Pereira Jasper, 1049 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>(47) 3842-0014</t>
+          <t>(11) 2053-3376</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['Monday: 8:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:30\u202fPM', 'Tuesday: 8:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:30\u202fPM', 'Wednesday: 8:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:30\u202fPM', 'Thursday: 8:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:30\u202fPM', 'Friday: 8:30\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 9:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 9:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 9:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 9:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 9:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://www.regiplasticos.com.br/</t>
+          <t>http://injecaodeplastico.com.br/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2344972102721693310</t>
+          <t>https://maps.google.com/?cid=6110614932845145305</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-26.3951593</v>
+        <v>-26.4143128</v>
       </c>
       <c r="H30" t="n">
-        <v>-48.7395282</v>
+        <v>-48.7435356</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Technoplast Indústria de Plásticos</t>
+          <t>Fortlev - Unidade SC</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R. Rio Tocantins - Itinga, Araquari - SC, 89245-000, Brazil</t>
+          <t>Rod. BR 101 km 64,7 S/N Galpão 1 - Estr. da Corveta - Corveta, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>(47) 3801-5200</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>http://www.fortlev.com.br/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3143790465071033807</t>
+          <t>https://maps.google.com/?cid=621845629969621111</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>-26.4037828</v>
+        <v>-26.4694911</v>
       </c>
       <c r="H31" t="n">
-        <v>-48.80457579999999</v>
+        <v>-48.7468361</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sokit Indústria e Comércio de Plásticos e Fixadores</t>
+          <t>Topeka Embalagens</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Rua Adenor Steffens, 393 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Anderson Miquelute, 175 B - Itinga, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>(47) 3436-7002</t>
+          <t>(47) 3029-5651</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://www.sokit.ind.br/</t>
+          <t>http://topekaembalagens.com.br/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1885106090822848458</t>
+          <t>https://maps.google.com/?cid=16800165772555249326</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>-26.414552</v>
+        <v>-26.4036958</v>
       </c>
       <c r="H32" t="n">
-        <v>-48.747793</v>
+        <v>-48.80501779999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JF Plásticos</t>
+          <t>Plásticos Joinville</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R. Florentina Pereira Jasper, 780 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>Rodovia BR 101 - s/n Km 74 - Itapocu, Itapocu - Araquari - SC, 89246-000, Brazil</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>(47) 3307-7733</t>
+          <t>(47) 3455-3862</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: 8:00\u202fAM\u2009–\u200912:00\u202fPM', 'Sunday: Closed']</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1681,106 +1681,106 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17653220943147102115</t>
+          <t>https://maps.google.com/?cid=17894418979909202139</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>-26.4141345</v>
+        <v>-26.5502288</v>
       </c>
       <c r="H33" t="n">
-        <v>-48.74421279999999</v>
+        <v>-48.7127828</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Facol Distribuidora de Embalagens</t>
+          <t>Belosch</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BR-280, KM29 - 2707 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>BR-280 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>(47) 99154-7755</t>
+          <t>(47) 3447-6777</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20095:45\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:45\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:45\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:45\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:45\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>http://www.belosch.com.br/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=4710794816938638766</t>
+          <t>https://maps.google.com/?cid=3738095850852143924</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>-26.4104306</v>
+        <v>-26.4038096</v>
       </c>
       <c r="H34" t="n">
-        <v>-48.7532109</v>
+        <v>-48.7465536</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Injequaly - Injeção e Ferramentaria</t>
+          <t>Sigmacrom</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R. Florentina Pereira Jasper, 1049 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>Estr. Geral Porto Grande, 1805 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>(11) 2053-3376</t>
+          <t>(47) 3205-0333</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['Monday: 9:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 9:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 9:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 9:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 9:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 7:30\u202fAM\u2009–\u20095:00\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:00\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:00\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:00\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://injecaodeplastico.com.br/</t>
+          <t>http://sigmacrom.com.br/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6110614932845145305</t>
+          <t>https://maps.google.com/?cid=7787809127290830101</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>-26.4143128</v>
+        <v>-26.4265175</v>
       </c>
       <c r="H35" t="n">
-        <v>-48.7435356</v>
+        <v>-48.7540353</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Plasnorthon Indústria e Comércio</t>
+          <t>Technoplast Indústria de Plásticos</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Av. das Indústrias, 571 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Rio Tocantins - Itinga, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>(47) 3121-7200</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1795,339 +1795,339 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=4682045295135500573</t>
+          <t>https://maps.google.com/?cid=3143790465071033807</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>-26.4105565</v>
+        <v>-26.4037828</v>
       </c>
       <c r="H36" t="n">
-        <v>-48.74470549999999</v>
+        <v>-48.80457579999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sigmacrom</t>
+          <t>NC ROTOMOLDAGEM - PLAYGROND</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Estr. Geral Porto Grande, 1805 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. da Prosperidade, 304 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>(47) 3205-0333</t>
+          <t>(47) 99143-4767</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['Monday: 7:30\u202fAM\u2009–\u20095:00\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:00\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:00\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:00\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 7:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:00\u202fPM', 'Tuesday: 7:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:00\u202fPM', 'Wednesday: 7:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:00\u202fPM', 'Thursday: 7:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:00\u202fPM', 'Friday: 7:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20094:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://sigmacrom.com.br/</t>
+          <t>https://ncrotomoldagem.com/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7787809127290830101</t>
+          <t>https://maps.google.com/?cid=7091138811142790241</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>-26.4265175</v>
+        <v>-26.4159247</v>
       </c>
       <c r="H37" t="n">
-        <v>-48.7540353</v>
+        <v>-48.7491276</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Uniforde</t>
+          <t>Ciclotherm Desenvolvimento em Peças Plásticas</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R. Antônio Jasper, 1111 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Salvador Ângelo Cardoso - Araquari, SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>(47) 3432-0707</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://www.unifortte.ind.br/</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3540349458652302645</t>
+          <t>https://maps.google.com/?cid=8984190837709594641</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>-26.4147515</v>
+        <v>-26.381625</v>
       </c>
       <c r="H38" t="n">
-        <v>-48.7422874</v>
+        <v>-48.7217213</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Rotomega Plásticos - CRE</t>
+          <t>Uniforde</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R. João Vidal da Silva, 500 - Corveta, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Antônio Jasper, 1111 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>(47) 3454-7909</t>
+          <t>(47) 3432-0707</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://www.rotomega.com.br/</t>
+          <t>http://www.unifortte.ind.br/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1741590959201200716</t>
+          <t>https://maps.google.com/?cid=3540349458652302645</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>-26.4674753</v>
+        <v>-26.4147515</v>
       </c>
       <c r="H39" t="n">
-        <v>-48.7399332</v>
+        <v>-48.7422874</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cubo Embalagens - Fábrica de caixas de papelão</t>
+          <t>Isoterm Industry and Trade LTDA- Packaging Branch</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R. Jordão Pereira, 115 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>BR-101 - Corveta, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>(47) 3305-1842</t>
+          <t>(47) 3452-0088</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://cuboembalagens.com.br/</t>
+          <t>http://www.isoterm.com.br/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6211762786588949251</t>
+          <t>https://maps.google.com/?cid=16518496566927946513</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>-26.4065523</v>
+        <v>-26.4643947</v>
       </c>
       <c r="H40" t="n">
-        <v>-48.74985849999999</v>
+        <v>-48.74662190000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NC ROTOMOLDAGEM - PLAYGROND</t>
+          <t>Plasnorthon Indústria e Comércio</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R. da Prosperidade, 304 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>Av. das Indústrias, 571 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>(47) 99143-4767</t>
+          <t>(47) 3121-7200</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>['Monday: 7:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:00\u202fPM', 'Tuesday: 7:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:00\u202fPM', 'Wednesday: 7:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:00\u202fPM', 'Thursday: 7:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:00\u202fPM', 'Friday: 7:00\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20094:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://ncrotomoldagem.com/</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7091138811142790241</t>
+          <t>https://maps.google.com/?cid=4682045295135500573</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>-26.4159247</v>
+        <v>-26.4105565</v>
       </c>
       <c r="H41" t="n">
-        <v>-48.7491276</v>
+        <v>-48.74470549999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ciclotherm Desenvolvimento em Peças Plásticas</t>
+          <t>plaskit</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R. Salvador Ângelo Cardoso - Araquari, SC, 89245-000, Brazil</t>
+          <t>Rua Adenor Steffens 393 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>(47) 3436-7002</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20094:30\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20094:30\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20094:30\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20094:30\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20094:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>http://plaskit.com.br/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8984190837709594641</t>
+          <t>https://maps.google.com/?cid=16843953199884127</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>-26.381625</v>
+        <v>-26.4156322</v>
       </c>
       <c r="H42" t="n">
-        <v>-48.7217213</v>
+        <v>-48.7461674</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Topkeg Embalagens Plásticas LTDA</t>
+          <t>JMS Plásticos</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R. José Júlio Moreira, 3404 - Araquari, SC, 89245-000, Brazil</t>
+          <t>BR-280, 5065 - Colégio Agrícola, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>(47) 4106-9111</t>
+          <t>(47) 3432-1081</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['Monday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20095:30\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u200912:00\u202fPM, 1:00\u2009–\u20094:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://topkeg.com.br/</t>
+          <t>https://jmsplasticos.com.br/sp/contacto/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13129327120351667419</t>
+          <t>https://maps.google.com/?cid=13638574354336374088</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>-26.4346333</v>
+        <v>-26.3951593</v>
       </c>
       <c r="H43" t="n">
-        <v>-48.7839944</v>
+        <v>-48.7395282</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>JMS Plásticos</t>
+          <t>ADS Plásticos</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BR-280, 5065 - Colégio Agrícola, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Norberto da Maia, 655 - Volta Redonda, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>(47) 3432-1081</t>
+          <t>(47) 99233-9893</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>['Monday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://jmsplasticos.com.br/sp/contacto/</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13638574354336374088</t>
+          <t>https://maps.google.com/?cid=12559018459144623383</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-26.3951593</v>
+        <v>-26.378659</v>
       </c>
       <c r="H44" t="n">
-        <v>-48.7395282</v>
+        <v>-48.71173119999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C.R.E Indústria de Plásticos e Pigmentos Concentrados</t>
+          <t>Nycolplast</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R. João Vidal da Silva, 500 - Corveta, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Santa Catarina, 8085 - Itinga, Joinville - SC, 89233-005, Brazil</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>(47) 3454-7909</t>
+          <t>(47) 3451-5347</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u200912:00\u202fPM, 1:30\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 7:00\u202fAM\u2009–\u20095:00\u202fPM', 'Tuesday: 7:00\u202fAM\u2009–\u20095:00\u202fPM', 'Wednesday: 7:00\u202fAM\u2009–\u20095:00\u202fPM', 'Thursday: 7:00\u202fAM\u2009–\u20095:00\u202fPM', 'Friday: 7:00\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2137,111 +2137,111 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3362341130503749882</t>
+          <t>https://maps.google.com/?cid=6617954641183308813</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>-26.4674402</v>
+        <v>-26.3873001</v>
       </c>
       <c r="H45" t="n">
-        <v>-48.7398761</v>
+        <v>-48.8392255</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Plásticos Mauá Sul Ltda.</t>
+          <t>Tecnocell</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Estr. da Ilha, 6527 - Zona Industrial Norte, Joinville - SC, 89239-250, Brazil</t>
+          <t>Estr. Geral Porto Grande, 992-658 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>(47) 3461-3000</t>
+          <t>(47) 99974-1566</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['Monday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20094:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://mauasul.com.br/</t>
+          <t>http://tecnocell.com.br/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1938601794117813481</t>
+          <t>https://maps.google.com/?cid=18001397748949963952</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>-26.2261714</v>
+        <v>-26.4177276</v>
       </c>
       <c r="H46" t="n">
-        <v>-48.8965845</v>
+        <v>-48.7512812</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sulbras Molds and Plastics Ltda</t>
+          <t>Víqua Indústria de Plásticos</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R. Dona Francisca, 8300 - Módulo 5, Bloco C - Distrito Industrial, Joinville - SC, 89219-600, Brazil</t>
+          <t>R. Parati, 16 - Nova Brasília, Joinville - SC, 89213-200, Brazil</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>(47) 3205-1800</t>
+          <t>(47) 3025-9999</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['Monday: 7:45\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 7:45\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 7:45\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 7:45\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 7:45\u202fAM\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20094:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://www.sulbras.com.br/</t>
+          <t>http://www.viqua.com.br/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7017893058866649377</t>
+          <t>https://maps.google.com/?cid=3577458991364883993</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>-26.2431429</v>
+        <v>-26.3445844</v>
       </c>
       <c r="H47" t="n">
-        <v>-48.8820647</v>
+        <v>-48.8592089</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Nycolplast</t>
+          <t>SRM Manchester Plásticos</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R. Santa Catarina, 8085 - Itinga, Joinville - SC, 89233-005, Brazil</t>
+          <t>Rodovia BR-280, Km 29.5, 3203 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>(47) 3451-5347</t>
+          <t>(47) 3452-2036</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>['Monday: 7:00\u202fAM\u2009–\u20095:00\u202fPM', 'Tuesday: 7:00\u202fAM\u2009–\u20095:00\u202fPM', 'Wednesday: 7:00\u202fAM\u2009–\u20095:00\u202fPM', 'Thursday: 7:00\u202fAM\u2009–\u20095:00\u202fPM', 'Friday: 7:00\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2251,182 +2251,182 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6617954641183308813</t>
+          <t>https://maps.google.com/?cid=7791690924504527569</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>-26.3873001</v>
+        <v>-26.4059093</v>
       </c>
       <c r="H48" t="n">
-        <v>-48.8392255</v>
+        <v>-48.7493436</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SRM Manchester Plásticos</t>
+          <t>Plasbohn Indústria de Plásticos Ltda.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Rodovia BR-280, Km 29.5, 3203 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>BR-101, 3248 - Santa Catarina, Joinville - SC, 89233-190, Brazil</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>(47) 3452-2036</t>
+          <t>(47) 3803-2500</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>['Monday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>http://www.plasbohn.com.br/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7791690924504527569</t>
+          <t>https://maps.google.com/?cid=14299120593341893187</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>-26.4059093</v>
+        <v>-26.3642269</v>
       </c>
       <c r="H49" t="n">
-        <v>-48.7493436</v>
+        <v>-48.8572728</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Soujet Indústria e Comércio de Plásticos</t>
+          <t>MBW Indústria de Moldes e Injetados Ltda</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R. Santa Catarina, 8131 - Itinga, Joinville - SC, 89233-005, Brazil</t>
+          <t>Av. Pref. Alberto Natalino Miquelute, 9319 - Itinga, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>(47) 3417-9000</t>
+          <t>(47) 3465-4789</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>['Monday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://www.soujet.com.br/</t>
+          <t>http://www.mbw.ind.br/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1212714241851556661</t>
+          <t>https://maps.google.com/?cid=6457987791629645092</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>-26.3858379</v>
+        <v>-26.4186054</v>
       </c>
       <c r="H50" t="n">
-        <v>-48.8378655</v>
+        <v>-48.78397529999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>plaskit</t>
+          <t>Gran PVC</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Rua Adenor Steffens 393 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Amauri de Braga, 37 - Volta Redonda, Araquari - SC, 89255-000, Brazil</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>(47) 3436-7002</t>
+          <t>(47) 3438-2193</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20094:30\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20094:30\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20094:30\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20094:30\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20094:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: Open 24 hours', 'Tuesday: Open 24 hours', 'Wednesday: Open 24 hours', 'Thursday: Open 24 hours', 'Friday: Open 24 hours', 'Saturday: Open 24 hours', 'Sunday: Open 24 hours']</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://plaskit.com.br/</t>
+          <t>https://www.instagram.com/granpvc</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16843953199884127</t>
+          <t>https://maps.google.com/?cid=16298722237153321951</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>-26.4156322</v>
+        <v>-26.3739348</v>
       </c>
       <c r="H51" t="n">
-        <v>-48.7461674</v>
+        <v>-48.7124311</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Plasbohn Indústria de Plásticos Ltda.</t>
+          <t>Plásticos Mauá Sul Ltda.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BR-101, 3248 - Santa Catarina, Joinville - SC, 89233-190, Brazil</t>
+          <t>Estr. da Ilha, 6527 - Zona Industrial Norte, Joinville - SC, 89239-250, Brazil</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>(47) 3803-2500</t>
+          <t>(47) 3461-3000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['Monday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20094:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://www.plasbohn.com.br/</t>
+          <t>http://mauasul.com.br/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=14299120593341893187</t>
+          <t>https://maps.google.com/?cid=1938601794117813481</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>-26.3642269</v>
+        <v>-26.2261714</v>
       </c>
       <c r="H52" t="n">
-        <v>-48.8572728</v>
+        <v>-48.8965845</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Plastisol Indústria de Plásticos</t>
+          <t>Soujet Indústria e Comércio de Plásticos</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R. Cidade de Luziânia, 135 - Itinga, Joinville - SC, 89233-850, Brazil</t>
+          <t>R. Santa Catarina, 8131 - Itinga, Joinville - SC, 89233-005, Brazil</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>(47) 3454-7676</t>
+          <t>(47) 3417-9000</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2436,171 +2436,171 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://www.plastisol.com.br/</t>
+          <t>http://www.soujet.com.br/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=18367077928689757047</t>
+          <t>https://maps.google.com/?cid=1212714241851556661</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>-26.3892832</v>
+        <v>-26.3858379</v>
       </c>
       <c r="H53" t="n">
-        <v>-48.8331979</v>
+        <v>-48.8378655</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MBW Indústria de Moldes e Injetados Ltda</t>
+          <t>Cinco Plastic Indústria de Artefatos de Plásticos LTDA</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Av. Pref. Alberto Natalino Miquelute, 9319 - Itinga, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Santa Catarina, 3611 - Santa Catarina, Joinville - SC, 89211-305, Brazil</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>(47) 3465-4789</t>
+          <t>(47) 3426-3299</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['Monday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://www.mbw.ind.br/</t>
+          <t>http://www.5plastic.com.br/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6457987791629645092</t>
+          <t>https://maps.google.com/?cid=2023693783695486243</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>-26.4186054</v>
+        <v>-26.35308119999999</v>
       </c>
       <c r="H54" t="n">
-        <v>-48.78397529999999</v>
+        <v>-48.8467308</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ADS Plásticos</t>
+          <t>Protmolde Protótipos e Moldes</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R. Norberto da Maia, 655 - Volta Redonda, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. da Prosperidade, 515 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>(47) 99233-9893</t>
+          <t>(47) 3422-4690</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['Monday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20095:18\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 7:15\u202fAM\u2009–\u20095:15\u202fPM', 'Tuesday: 7:15\u202fAM\u2009–\u20095:15\u202fPM', 'Wednesday: 7:15\u202fAM\u2009–\u20095:15\u202fPM', 'Thursday: 7:15\u202fAM\u2009–\u20095:15\u202fPM', 'Friday: 7:15\u202fAM\u2009–\u20094:15\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://protmolde.com.br/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12559018459144623383</t>
+          <t>https://maps.google.com/?cid=6614526355952459913</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>-26.378659</v>
+        <v>-26.4173784</v>
       </c>
       <c r="H55" t="n">
-        <v>-48.71173119999999</v>
+        <v>-48.7470689</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nord West Indústria de Plásticos Ltda</t>
+          <t>Sulbras Molds and Plastics Ltda</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R. Perpétua Borges Cunha, 320 - Jarivatuba, Joinville - SC, 89230-530, Brazil</t>
+          <t>R. Dona Francisca, 8300 - Módulo 5, Bloco C - Distrito Industrial, Joinville - SC, 89219-600, Brazil</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>(47) 3028-7895</t>
+          <t>(47) 3205-1800</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: 8:00\u202fAM\u2009–\u200912:00\u202fPM', 'Sunday: Closed']</t>
+          <t>['Monday: 7:45\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 7:45\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 7:45\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 7:45\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 7:45\u202fAM\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://nordwest.ind.br/</t>
+          <t>http://www.sulbras.com.br/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8151076080695949164</t>
+          <t>https://maps.google.com/?cid=7017893058866649377</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>-26.3328656</v>
+        <v>-26.2431429</v>
       </c>
       <c r="H56" t="n">
-        <v>-48.8032621</v>
+        <v>-48.8820647</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Tecnocell</t>
+          <t>Plastisol Indústria de Plásticos</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Estr. Geral Porto Grande, 992-658 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Cidade de Luziânia, 135 - Itinga, Joinville - SC, 89233-850, Brazil</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>(47) 99974-1566</t>
+          <t>(47) 3454-7676</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20096:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://tecnocell.com.br/</t>
+          <t>http://www.plastisol.com.br/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=18001397748949963952</t>
+          <t>https://maps.google.com/?cid=18367077928689757047</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>-26.4177276</v>
+        <v>-26.3892832</v>
       </c>
       <c r="H57" t="n">
-        <v>-48.7512812</v>
+        <v>-48.8331979</v>
       </c>
     </row>
     <row r="58">
@@ -2644,115 +2644,115 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Milbra Artefatos Metálicos</t>
+          <t>Plasticoville</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R. Anderson Miquelute, 227 - Itinga, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Lauro Zimmermann Júnior, 100 - Costa e Silva, Joinville - SC, 89219-160, Brazil</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>(47) 3426-8009</t>
+          <t>(47) 3205-9000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['Monday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u20095:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>['Monday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:00\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>http://plasticoville.com.br/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3310686534898120873</t>
+          <t>https://maps.google.com/?cid=11425466575382945480</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>-26.4038944</v>
+        <v>-26.2677767</v>
       </c>
       <c r="H59" t="n">
-        <v>-48.8048264</v>
+        <v>-48.8670206</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Veneperfil Comércio de Artefatos Plásticos Projetos Assesso</t>
+          <t>PKS Plastics LTD.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Estrada Porto Grande, 1805 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
+          <t>R. Bruno Germano Ponick, 140 - Bom Retiro, Joinville - SC, 89223-230, Brazil</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>(47) 3422-2184</t>
+          <t>(47) 3481-8100</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>['Monday: 7:30\u202fAM\u2009–\u200911:30\u202fPM', 'Tuesday: 7:30\u202fAM\u2009–\u200911:30\u202fPM', 'Wednesday: 7:30\u202fAM\u2009–\u200911:30\u202fPM', 'Thursday: 7:30\u202fAM\u2009–\u200911:30\u202fPM', 'Friday: 7:30\u202fAM\u2009–\u200911:30\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.pks.ind.br/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=4552875498797555644</t>
+          <t>https://maps.google.com/?cid=18375207782518616661</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>-26.405838</v>
+        <v>-26.256989</v>
       </c>
       <c r="H60" t="n">
-        <v>-48.7442455</v>
+        <v>-48.848853</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Plastibras Plastic Industry Ltd.</t>
+          <t>Veneperfil Comércio de Artefatos Plásticos Projetos Assesso</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R. Ten. Antônio João, 4000 - Jardim Sofia, Joinville - SC, 89223-100, Brazil</t>
+          <t>Estrada Porto Grande, 1805 - Porto Grande, Araquari - SC, 89245-000, Brazil</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>(47) 3473-0077</t>
+          <t>(47) 3422-2184</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>['Monday: 8:00\u202fAM\u2009–\u20095:48\u202fPM', 'Tuesday: 8:00\u202fAM\u2009–\u20095:48\u202fPM', 'Wednesday: 8:00\u202fAM\u2009–\u20095:48\u202fPM', 'Thursday: 8:00\u202fAM\u2009–\u20095:48\u202fPM', 'Friday: 8:00\u202fAM\u2009–\u20095:48\u202fPM', 'Saturday: Closed', 'Sunday: Closed']</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.plastibras.com.br/?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb-info</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16623597804734521232</t>
+          <t>https://maps.google.com/?cid=4552875498797555644</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>-26.2436209</v>
+        <v>-26.405838</v>
       </c>
       <c r="H61" t="n">
-        <v>-48.8528481</v>
+        <v>-48.7442455</v>
       </c>
     </row>
   </sheetData>
